--- a/biology/Botanique/Clérodendron/Clérodendron.xlsx
+++ b/biology/Botanique/Clérodendron/Clérodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9rodendron</t>
+          <t>Clérodendron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clerodendrum
 Le genre Clerodendrum, les clérodendrons, comprend environ 400 espèces d'arbres, d'arbustes ou de lianes originaires des régions tropicales d'Afrique et d'Asie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9rodendron</t>
+          <t>Clérodendron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec klêros, clergé, et dendron, arbre. Une espèce était utilisée autrefois à Ceylan par les prêtres cingalais dans leurs cérémonies[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec klêros, clergé, et dendron, arbre. Une espèce était utilisée autrefois à Ceylan par les prêtres cingalais dans leurs cérémonies.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9rodendron</t>
+          <t>Clérodendron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Liste des espèces, sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (19 septembre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (19 septembre 2017) :
 Clerodendrum amicorum Seem.
 Clerodendrum anafense Britton &amp; P. Wilson
 Clerodendrum bracteatum Wall. ex Walp.
@@ -579,7 +595,7 @@
 Clerodendrum villosum Blume
 Clerodendrum viscosum Vent.
 Clerodendrum wallichii Merr.
-Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2017) :
 Clerodendrum abilioi R.Fern. (1998)
 Clerodendrum adenocalyx Dop (1935)
 Clerodendrum adenophysum Hallier f. (1918)
@@ -914,7 +930,7 @@
 Clerodendrum yunnanense Hu, Anz. Akad. Wiss. Wien (1924 publ. 1925)
 variété Clerodendrum yunnanense var. linearilobum S.L.Chen &amp; G.Y.Sheng (1982)
 variété Clerodendrum yunnanense var. yunnanense
-Selon The Plant List            (19 septembre 2017)[5] :
+Selon The Plant List            (19 septembre 2017) :
 Clerodendrum abilioi R.Fern.
 Clerodendrum adenocalyx Dop
 Clerodendrum adenophysum Hallier f.
@@ -1223,7 +1239,7 @@
 Clerodendrum wenzelii Merr.
 Clerodendrum williamsii Elmer
 Clerodendrum yunnanense Hu
-Selon Tropicos                                           (19 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Clerodendrum abilioi R. Fern.
 Clerodendrum acerbianum (Vis.) Benth.
 Clerodendrum aculeatum (L.) Schltdl.
@@ -1410,7 +1426,7 @@
 Clerodendrum eucalycinum Oliv.
 Clerodendrum eupatorioides Baker
 Clerodendrum euryphyllum B. Thomas
-Clerodendrum exca</t>
+Clerodendrum excavatum De Wil</t>
         </is>
       </c>
     </row>
